--- a/大茂_template.xlsx
+++ b/大茂_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC1E5B-AEB2-4577-B1E2-3B9B5295165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438577A8-8E8C-4452-BFFF-126A51DDF43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="666" xr2:uid="{F7E96923-5F98-49FE-A02C-DC68C1DA2C25}"/>
   </bookViews>
